--- a/Результаты эксперимента.xlsx
+++ b/Результаты эксперимента.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Документы\Arbeit\Курсы\Копирайтер\Мои кейсы\Кейсы для портфолио\Кейс Сторителлинг\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ssewa\GitHub\Story_Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0457382-83EC-40EA-B247-26092DB2EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05672A4-4B9F-4A57-A78F-D0F607925A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="990" windowWidth="14025" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14025" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Оператор-экспериментатор</t>
   </si>
   <si>
-    <t>В.В.Савельев</t>
-  </si>
-  <si>
     <t>Ассистент</t>
   </si>
   <si>
     <t>Д.А.Савельев</t>
+  </si>
+  <si>
+    <t>В.Н.Савельев</t>
   </si>
 </sst>
 </file>
@@ -425,13 +425,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,6 +444,61 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -555,61 +610,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -905,21 +905,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="4">
         <f ca="1">NOW()</f>
-        <v>45363.597610300923</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+        <v>45374.919949537034</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -927,17 +927,17 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="23"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -961,7 +961,7 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -988,7 +988,7 @@
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1013,7 +1013,7 @@
         <v>НЕТ</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1038,7 +1038,7 @@
         <v>НЕТ</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1063,7 +1063,7 @@
         <v>СИГНАЛ!</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1090,20 +1090,20 @@
       <c r="G9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1112,80 +1112,80 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
@@ -1194,43 +1194,43 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1241,82 +1241,82 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>ABS($D$5)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>ABS($D$6)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>ABS($D$7)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$D$7=MAX(ABS($D$5:$D$9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>ABS($D$8)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>ABS($D$9)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$E$5=MAX($E$5:$E$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$E$6=MAX($E$5:$E$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$E$7=MAX($E$5:$E$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$E$5=MAX($E$5:$E$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$E$9=MAX($E$5:$E$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>$C$5&lt;=$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>$C$6&lt;=$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$C$7&lt;=$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$C$8&lt;=$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>$C$9&lt;=$B$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>ABS($D$5)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>ABS($D$6)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>ABS($D$8)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>ABS($D$7)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D$7=MAX(ABS($D$5:$D$9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>ABS($D$9)=MAX(ABS($D$5),ABS($D$6),ABS($D$7),ABS($D$8),ABS($D$9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$E$5=MAX($E$5:$E$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$E$9=MAX($E$5:$E$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$E$6=MAX($E$5:$E$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$E$7=MAX($E$5:$E$9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E$5=MAX($E$5:$E$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
